--- a/INTLINE/data/Country.xlsx
+++ b/INTLINE/data/Country.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\INTLINE\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EE598F-56E0-4E43-91BC-DB9BE7F720BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F510AB-651C-4A56-908D-D985B474BB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1171,7 +1171,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
@@ -1538,5 +1538,6 @@
   </sortState>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>